--- a/JoinedFlamm_Trait/Trait_Correlation_Table.xlsx
+++ b/JoinedFlamm_Trait/Trait_Correlation_Table.xlsx
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E730"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
